--- a/biology/Origine et évolution du vivant/Liste_des_formes_de_vie/Liste_des_formes_de_vie.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_formes_de_vie/Liste_des_formes_de_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chronologie de l'évolution du vivantvoir • discuter • modifier-4500 —–-4000 —–-3500 —–-3000 —–-2500 —–-2000 —–-1500 —–-1000 —–-500 —–0 —EauOrganismes unicellulairesPhotosynthèseProduction de dioxygèneEucaryotesOrganismes multicellulairesFaune silurienneDinosauresMammifèresFleurs ←Formation de la Terre (−4540)←Naissance de la vie←Bombardement←Grande Oxydation←Apparition de la sexualité←Expl. d'Avalon←Expl. cambrienne←Homo sapiensPhanérozoïqueProtérozoïqueArchéenHadéenMésoarchéenHuronienCryogénienAndéenKarooQuaternairesÉchelle : millions d'années.Orange : glaciationVoir aussi : la frise chronologique de l'Univers et Histoire de la Terre
-Une forme de vie est une entité ou un être qui vit[1],[2].
-En 2012, il était estimé que la Terre accueillait entre 10 et 14 millions d'espèces[3] dont environ 1,2 million avaient été documentées (plus de 86 % n'auraient pas encore été décrites[4]). En mai 2016, ce nombre a été porté à un billion (mille milliards) d'espèces estimées sur Terre avec seulement un millième de pour cent décrit[5].
-Plus de 99 % de toutes les espèces qui aient jamais vécu sur Terre, soit plus de cinq milliards d'espèces[6], sont estimés éteintes[7],[8].
+Une forme de vie est une entité ou un être qui vit,.
+En 2012, il était estimé que la Terre accueillait entre 10 et 14 millions d'espèces dont environ 1,2 million avaient été documentées (plus de 86 % n'auraient pas encore été décrites). En mai 2016, ce nombre a été porté à un billion (mille milliards) d'espèces estimées sur Terre avec seulement un millième de pour cent décrit.
+Plus de 99 % de toutes les espèces qui aient jamais vécu sur Terre, soit plus de cinq milliards d'espèces, sont estimés éteintes,.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Archées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Archées
 Crenarchaeota
@@ -563,7 +577,9 @@
           <t>Bactéries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bactéries
 Gram positif, pas de membrane externe
@@ -618,7 +634,9 @@
           <t>Eucaryote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Organismes dont les cellules contiennent des structures complexes enfermés à l'intérieur de membranes.
 Eukaryote
